--- a/docss/trend/spain/E_blood.xlsx
+++ b/docss/trend/spain/E_blood.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cap2_Sangre_Comarcas" sheetId="2" r:id="rId1"/>
     <sheet name="Tasa_anual_cap2_Sangre" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -12812,7 +12812,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12839,13 +12839,13 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>0.40331129900964208</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="C2">
-        <v>0.44088535704320947</v>
+        <v>0.441</v>
       </c>
       <c r="D2">
-        <v>0.36500064703959628</v>
+        <v>0.36499999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12853,13 +12853,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>0.4197380941768778</v>
+        <v>0.42</v>
       </c>
       <c r="C3">
-        <v>0.49909633120550689</v>
+        <v>0.499</v>
       </c>
       <c r="D3">
-        <v>0.3572776648183304</v>
+        <v>0.35699999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12867,13 +12867,13 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>0.37515919750062254</v>
+        <v>0.375</v>
       </c>
       <c r="C4">
-        <v>0.41785554414406112</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="D4">
-        <v>0.33565762175823782</v>
+        <v>0.33600000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12881,13 +12881,13 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>0.42725396460766796</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="C5">
-        <v>0.47049520947585072</v>
+        <v>0.47</v>
       </c>
       <c r="D5">
-        <v>0.38239106039639525</v>
+        <v>0.38200000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12895,13 +12895,13 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>0.43452715474723769</v>
+        <v>0.435</v>
       </c>
       <c r="C6">
-        <v>0.48320376427511358</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="D6">
-        <v>0.39283549995421885</v>
+        <v>0.39300000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12909,13 +12909,13 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>0.38133882646518624</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="C7">
-        <v>0.46500667192914141</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="D7">
-        <v>0.3080664277531836</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12923,13 +12923,13 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>0.33666564777230368</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="C8">
-        <v>0.37096850752917199</v>
+        <v>0.371</v>
       </c>
       <c r="D8">
-        <v>0.29588244563081911</v>
+        <v>0.29599999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12937,13 +12937,13 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>0.34204626665985466</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="C9">
-        <v>0.36718694428277887</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="D9">
-        <v>0.3142069150196245</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12951,13 +12951,13 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>0.3028816471834001</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="C10">
-        <v>0.36192447560343399</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="D10">
-        <v>0.24981533692828259</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12965,13 +12965,13 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>0.35594864105116047</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="C11">
-        <v>0.34485503993551592</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="D11">
-        <v>0.36645841856443406</v>
+        <v>0.36599999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12979,13 +12979,13 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>0.36052219687730053</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="C12">
-        <v>0.39897943078700904</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="D12">
-        <v>0.33442916597729549</v>
+        <v>0.33400000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12993,13 +12993,13 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>0.31471315617982104</v>
+        <v>0.315</v>
       </c>
       <c r="C13">
-        <v>0.38669584516262939</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="D13">
-        <v>0.25575888457162149</v>
+        <v>0.25600000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13007,13 +13007,13 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>0.2976635446728027</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="C14">
-        <v>0.32865051124560213</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="D14">
-        <v>0.26990597717544995</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13021,13 +13021,13 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>0.32723562207037199</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="C15">
-        <v>0.38367193257958815</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="D15">
-        <v>0.27865874015684894</v>
+        <v>0.27900000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13035,13 +13035,13 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>0.31863230488545358</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="C16">
-        <v>0.36689365206987867</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="D16">
-        <v>0.28184595113940847</v>
+        <v>0.28199999999999997</v>
       </c>
     </row>
   </sheetData>
